--- a/StructureDefinition-ext-R5-ValueSet.com.inc.con.designation.xlsx
+++ b/StructureDefinition-ext-R5-ValueSet.com.inc.con.designation.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -483,7 +483,7 @@
   </si>
   <si>
     <t>Element `ValueSet.compose.include.concept.designation.additionalUse` is part of an existing definition because parent element `ValueSet.compose.include.concept.designation` requires a component extension (e.g., if this element is used as a content reference).
-Element `ValueSet.compose.include.concept.designation.additionalUse` is mapped to FHIR R4 structure `ValueSet`, but has no target element specified.</t>
+Element `ValueSet.compose.include.concept.designation.additionalUse` is will have a context of ValueSet.compose.include.concept.designation based on following the parent source element upwards and mapping to `ValueSet`.</t>
   </si>
   <si>
     <t>Extension.extension:additionalUse.id</t>
